--- a/Standard_Policy_Deployments.xlsx
+++ b/Standard_Policy_Deployments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://datacomunity-my.sharepoint.com/personal/neily_datacom_co_nz/Documents/Documents/Azure/Scripts/BitBucket_Repositories/azure_policies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://datacomunity-my.sharepoint.com/personal/neily_datacom_co_nz/Documents/Documents/Azure/Scripts/Git Repositories/azure_policies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{323CF053-687D-4F28-8CDD-966C1F6B7E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67DDFEEA-1487-4905-980E-F49C85868FAA}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="13_ncr:1_{323CF053-687D-4F28-8CDD-966C1F6B7E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92D86E85-5F45-45D1-B121-F20ABDB8EC1D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C526893B-329A-46F6-A211-A9C74EF7D8E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C526893B-329A-46F6-A211-A9C74EF7D8E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignments" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="438">
   <si>
     <t>Description</t>
   </si>
@@ -420,60 +420,6 @@
     <t>Audits presence of a required tag</t>
   </si>
   <si>
-    <t>AUDIT - SUB - Azure Backup should be enabled for Virtual Machines</t>
-  </si>
-  <si>
-    <t>AUDIT - MG - Resource Groups for Tag Compliance</t>
-  </si>
-  <si>
-    <t>AUDIT - MG - Unrestricted Access To Resources</t>
-  </si>
-  <si>
-    <t>AUDIT - MG - Virtual Machines that do not use managed disks</t>
-  </si>
-  <si>
-    <t>DENY - MG - Large Managed Disk Sizes</t>
-  </si>
-  <si>
-    <t>DENY - MG - Public IP addresses to be assigned on NIC’s</t>
-  </si>
-  <si>
-    <t>DENY - SUB - Resources Deployed to Unauthorised Locations</t>
-  </si>
-  <si>
-    <t>DENY - SUB - Resource Groups Deployed to Unauthorised Locations</t>
-  </si>
-  <si>
-    <t>DENY - MG - Virtual Machine Deployed with unauthorised SKUs</t>
-  </si>
-  <si>
-    <t>DEPLOY - SUB - Apply diagnostic settings for applicable resources - Log Analytics</t>
-  </si>
-  <si>
-    <t>DEPLOY - SUB - Deploy Flow Logs to NSGs</t>
-  </si>
-  <si>
-    <t>DEPLOY - MG - Inherit Application tag from the resource group</t>
-  </si>
-  <si>
-    <t>DEPLOY - MG - Inherit Environment tag from the resource group</t>
-  </si>
-  <si>
-    <t>DEPLOY - MG - Inherit Owner tag from the resource group</t>
-  </si>
-  <si>
-    <t>DEPLOY - MG - Prerequisites to enable Guest Configuration policies on virtual machines</t>
-  </si>
-  <si>
-    <t>DEPLOY - SUB - Private DNS Integration For Resources With Private Endpoints</t>
-  </si>
-  <si>
-    <t>DEPLOY - SUB - Enable Azure Monitor for VMs</t>
-  </si>
-  <si>
-    <t>DEPLOY - SUB - Private Endpoints To Resources</t>
-  </si>
-  <si>
     <t>Applies pre Reqs to Guest Configuration</t>
   </si>
   <si>
@@ -495,9 +441,6 @@
     <t>Initiative</t>
   </si>
   <si>
-    <t>DEPLOY - SUB - Apply NSG Flow Log Settings</t>
-  </si>
-  <si>
     <t>Apply NSG Flow Log Settings</t>
   </si>
   <si>
@@ -519,12 +462,6 @@
     <t>Applies flow log settings to NSGs</t>
   </si>
   <si>
-    <t>AUDIT - SUB - Azure Security Benchmark</t>
-  </si>
-  <si>
-    <t>AUDIT - SUB - ISO 27001:2013 Compliance</t>
-  </si>
-  <si>
     <t>ISO 27001:2013</t>
   </si>
   <si>
@@ -1342,6 +1279,111 @@
   </si>
   <si>
     <t>See Diagnostic Settings</t>
+  </si>
+  <si>
+    <t>AUDIT - Resource Groups for Tag Compliance</t>
+  </si>
+  <si>
+    <t>AUDIT - Virtual Machines that do not use managed disks</t>
+  </si>
+  <si>
+    <t>AUDIT - Azure Backup should be enabled for Virtual Machines</t>
+  </si>
+  <si>
+    <t>AUDIT - Azure Security Benchmark</t>
+  </si>
+  <si>
+    <t>AUDIT - ISO 27001:2013 Compliance</t>
+  </si>
+  <si>
+    <t>DENY - Public IP addresses to be assigned on NIC’s</t>
+  </si>
+  <si>
+    <t>DENY - Virtual Machine Deployed with unauthorised SKUs</t>
+  </si>
+  <si>
+    <t>DENY - Resource Groups Deployed to Unauthorised Locations</t>
+  </si>
+  <si>
+    <t>DENY - Resources Deployed to Unauthorised Locations</t>
+  </si>
+  <si>
+    <t>DEPLOY - Inherit Application tag from the resource group</t>
+  </si>
+  <si>
+    <t>DEPLOY - Inherit Environment tag from the resource group</t>
+  </si>
+  <si>
+    <t>DEPLOY - Inherit Owner tag from the resource group</t>
+  </si>
+  <si>
+    <t>DEPLOY - Prerequisites to enable Guest Configuration policies on virtual machines</t>
+  </si>
+  <si>
+    <t>DEPLOY - Apply NSG Flow Log Settings</t>
+  </si>
+  <si>
+    <t>DEPLOY - Enable Azure Monitor for VMs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASC DataProtection </t>
+  </si>
+  <si>
+    <t>Configure Azure Defender to be enabled on SQL Servers and SQL Managed Instances</t>
+  </si>
+  <si>
+    <t>ASC provisioning Guest Configuration agent for Linux</t>
+  </si>
+  <si>
+    <t>ASC provisioning Guest Configuration agent for Windows</t>
+  </si>
+  <si>
+    <t>ASC provisioning machines with no MI for GC agent</t>
+  </si>
+  <si>
+    <t>ASC provisioning machines with user assigned MI for GC agent</t>
+  </si>
+  <si>
+    <t>Custom Defender for Cloud provisioning Azure Monitor agent</t>
+  </si>
+  <si>
+    <t>This policy assignment was automatically created by Azure Security Center for agent installation as configured in Security Center auto provisioning.</t>
+  </si>
+  <si>
+    <t>This policy assignment was automatically created by Azure Security Center</t>
+  </si>
+  <si>
+    <t>Configure machines to create the user-defined Microsoft Defender for Cloud pipeline using Azure Monitor Agent</t>
+  </si>
+  <si>
+    <t>DEPLOY - Diagnostic settings for key resources</t>
+  </si>
+  <si>
+    <t>DEPLOY - Deploy Flow Logs to NSGs in &lt;Region&gt;</t>
+  </si>
+  <si>
+    <t>DEPLOY - network watcher when virtual networks are created</t>
+  </si>
+  <si>
+    <t>DEPLOY - Private Endpoints To Resources in &lt;Region&gt;</t>
+  </si>
+  <si>
+    <t>DEPLOY - Set NoDelete Lock On Resource Groups</t>
+  </si>
+  <si>
+    <t>Set NoDelete Lock On Resource Groups</t>
+  </si>
+  <si>
+    <t>Sets No Delete lock on Resource Groups</t>
+  </si>
+  <si>
+    <t>Deploys Network watcher</t>
+  </si>
+  <si>
+    <t>Regulatory Compliance</t>
+  </si>
+  <si>
+    <t>Sets No Delete on Resource groups</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1415,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1492,15 +1534,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1524,16 +1557,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1719,100 +1905,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1889,45 +1981,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3542E27E-ADFD-420D-A326-7FC9AC77CAB3}" name="Table5" displayName="Table5" ref="A1:F22" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A1:F22" xr:uid="{3542E27E-ADFD-420D-A326-7FC9AC77CAB3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
-    <sortCondition ref="A1:A22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3542E27E-ADFD-420D-A326-7FC9AC77CAB3}" name="Table5" displayName="Table5" ref="A1:F30" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A1:F30" xr:uid="{3542E27E-ADFD-420D-A326-7FC9AC77CAB3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
+    <sortCondition ref="A2:A30"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D4F2FFEB-7EA6-48B3-9E2B-64D7986BE0D3}" name="Policy Assignment" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{7D85438B-6151-4D4A-9CCF-96F04CAB43BF}" name="Scope" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{BD254C41-3268-4116-9BD6-F45636575D2B}" name="Type" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{77C440E3-04B9-46CC-96E8-AC081A809F21}" name="Definition" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{01AADA0D-4CCD-4BB9-9C22-EB03495840CE}" name="Description" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{A13FBF5E-0EAF-49F3-9FA8-3188D5A08EF9}" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{D4F2FFEB-7EA6-48B3-9E2B-64D7986BE0D3}" name="Policy Assignment" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{7D85438B-6151-4D4A-9CCF-96F04CAB43BF}" name="Scope" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{BD254C41-3268-4116-9BD6-F45636575D2B}" name="Type" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{77C440E3-04B9-46CC-96E8-AC081A809F21}" name="Definition" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{01AADA0D-4CCD-4BB9-9C22-EB03495840CE}" name="Description" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{A13FBF5E-0EAF-49F3-9FA8-3188D5A08EF9}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E1679A14-963D-4056-B939-E669D64F2EEB}" name="Table4" displayName="Table4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E1679A14-963D-4056-B939-E669D64F2EEB}" name="Table4" displayName="Table4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A1:D8" xr:uid="{E1679A14-963D-4056-B939-E669D64F2EEB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B15932D4-8536-4035-A6B8-B133796DD050}" name="Initiative Name" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B51CC8A7-8D5E-4645-B388-DE9BB0A39B9B}" name="Type" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{8279B3BD-E5A6-436F-9DD2-8F1439AC547A}" name="Category " dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8F25CB55-CF6D-49F8-B6DB-AC54D5B7135F}" name="Policies" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{B15932D4-8536-4035-A6B8-B133796DD050}" name="Initiative Name" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B51CC8A7-8D5E-4645-B388-DE9BB0A39B9B}" name="Type" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{8279B3BD-E5A6-436F-9DD2-8F1439AC547A}" name="Category " dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{8F25CB55-CF6D-49F8-B6DB-AC54D5B7135F}" name="Policies" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C89E84E7-BFCA-43EA-BC7F-44723D916F23}" name="Table3" displayName="Table3" ref="A1:E41" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:E41" xr:uid="{C89E84E7-BFCA-43EA-BC7F-44723D916F23}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Custom"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C89E84E7-BFCA-43EA-BC7F-44723D916F23}" name="Table3" displayName="Table3" ref="A1:E42" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:E42" xr:uid="{C89E84E7-BFCA-43EA-BC7F-44723D916F23}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{32F7135D-91EE-46F8-AFDD-00FA5518DA7A}" name="Policy Definition Name"/>
     <tableColumn id="2" xr3:uid="{FEF4C30F-42B7-4BCD-B1CD-FA63EFA1F1D7}" name="Type"/>
@@ -1940,7 +2026,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C03CF4F-99FB-4D29-9040-E78092FFAA71}" name="Table1" displayName="Table1" ref="A1:B205" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C03CF4F-99FB-4D29-9040-E78092FFAA71}" name="Table1" displayName="Table1" ref="A1:B205" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:B205" xr:uid="{0C03CF4F-99FB-4D29-9040-E78092FFAA71}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{37D895BE-C9AC-4921-9FDF-E087C983CD6D}" name="Policy"/>
@@ -1951,7 +2037,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45EA6D82-AE5A-4584-843D-67E5D6851C4C}" name="Table2" displayName="Table2" ref="A1:B52" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45EA6D82-AE5A-4584-843D-67E5D6851C4C}" name="Table2" displayName="Table2" ref="A1:B52" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:B52" xr:uid="{45EA6D82-AE5A-4584-843D-67E5D6851C4C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C2995EDE-FCDA-4C07-B711-D2199BCD2572}" name="Policy"/>
@@ -1965,7 +2051,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{22CA609E-8F13-4067-BEA7-AD14489261DF}" name="notes" displayName="notes" ref="A1:A49" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:A49" xr:uid="{22CA609E-8F13-4067-BEA7-AD14489261DF}"/>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{260F814F-1EF3-466B-A7D6-0DE6A78869BD}" uniqueName="2" name="Policies" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{260F814F-1EF3-466B-A7D6-0DE6A78869BD}" uniqueName="2" name="Policies" queryTableFieldId="2" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2268,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE54F38-3FE5-4E24-B0A4-52F6E1B53E52}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,8 +2365,8 @@
     <col min="1" max="1" width="81.140625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="74.140625" customWidth="1"/>
-    <col min="5" max="5" width="87.140625" customWidth="1"/>
+    <col min="4" max="4" width="112" customWidth="1"/>
+    <col min="5" max="5" width="132.28515625" customWidth="1"/>
     <col min="6" max="6" width="126.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2289,7 +2375,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>87</v>
@@ -2300,400 +2386,545 @@
       <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>143</v>
+      <c r="F1" s="14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C13" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C14" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>144</v>
-      </c>
+      <c r="D30" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2704,13 +2935,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A2C0B4-CBD8-446C-9054-741A5C1CBC2F}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.85546875" customWidth="1"/>
+    <col min="1" max="1" width="76.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="79.7109375" customWidth="1"/>
@@ -2741,7 +2972,7 @@
         <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2841,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE243F7-8D7D-4923-ABBE-1A4B3E9EDF6E}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2852,7 +3083,7 @@
     <col min="1" max="1" width="109.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2873,7 +3104,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -2890,7 +3121,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2907,7 +3138,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2924,7 +3155,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2941,7 +3172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2958,7 +3189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2992,7 +3223,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3009,7 +3240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3026,7 +3257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -3043,7 +3274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -3060,7 +3291,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -3077,7 +3308,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -3094,7 +3325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3111,7 +3342,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -3128,7 +3359,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -3145,7 +3376,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -3162,7 +3393,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -3179,7 +3410,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -3196,7 +3427,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -3213,7 +3444,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -3230,7 +3461,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -3264,7 +3495,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -3281,7 +3512,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -3315,7 +3546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -3332,7 +3563,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -3400,7 +3631,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3417,7 +3648,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -3434,7 +3665,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -3451,7 +3682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -3468,7 +3699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -3485,7 +3716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3502,7 +3733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -3519,7 +3750,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -3538,7 +3769,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -3550,7 +3781,24 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>433</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>436</v>
+      </c>
+      <c r="E42" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -3581,39 +3829,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -3621,7 +3869,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -3629,87 +3877,87 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -3717,7 +3965,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -3725,7 +3973,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -3733,7 +3981,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -3741,63 +3989,63 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -3805,7 +4053,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
@@ -3813,15 +4061,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -3829,23 +4077,23 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -3853,15 +4101,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -3872,20 +4120,20 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -3893,111 +4141,111 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="B52" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
@@ -4005,7 +4253,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B54" t="s">
         <v>33</v>
@@ -4013,15 +4261,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B56" t="s">
         <v>33</v>
@@ -4029,7 +4277,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B57" t="s">
         <v>33</v>
@@ -4037,7 +4285,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="B58" t="s">
         <v>33</v>
@@ -4045,7 +4293,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B59" t="s">
         <v>33</v>
@@ -4053,7 +4301,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B60" t="s">
         <v>33</v>
@@ -4061,15 +4309,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B62" t="s">
         <v>33</v>
@@ -4077,15 +4325,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="B64" t="s">
         <v>33</v>
@@ -4093,7 +4341,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B65" t="s">
         <v>33</v>
@@ -4101,39 +4349,39 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="B70" t="s">
         <v>33</v>
@@ -4141,63 +4389,63 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B71" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="B73" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="B75" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="B76" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s">
         <v>33</v>
@@ -4205,7 +4453,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="B79" t="s">
         <v>33</v>
@@ -4213,7 +4461,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="B80" t="s">
         <v>33</v>
@@ -4221,71 +4469,71 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B89" t="s">
         <v>33</v>
@@ -4293,55 +4541,55 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="B94" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B95" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B96" t="s">
         <v>33</v>
@@ -4349,7 +4597,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="B97" t="s">
         <v>33</v>
@@ -4357,7 +4605,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="B98" t="s">
         <v>33</v>
@@ -4365,7 +4613,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="B99" t="s">
         <v>33</v>
@@ -4373,7 +4621,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="B100" t="s">
         <v>33</v>
@@ -4381,47 +4629,47 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="B102" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="B105" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="B106" t="s">
         <v>33</v>
@@ -4429,7 +4677,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B107" t="s">
         <v>33</v>
@@ -4437,7 +4685,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B108" t="s">
         <v>33</v>
@@ -4445,7 +4693,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="B109" t="s">
         <v>33</v>
@@ -4453,7 +4701,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B110" t="s">
         <v>33</v>
@@ -4461,7 +4709,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B111" t="s">
         <v>33</v>
@@ -4469,7 +4717,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B112" t="s">
         <v>33</v>
@@ -4477,7 +4725,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="B113" t="s">
         <v>33</v>
@@ -4485,7 +4733,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B114" t="s">
         <v>33</v>
@@ -4493,7 +4741,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B115" t="s">
         <v>33</v>
@@ -4501,7 +4749,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B116" t="s">
         <v>33</v>
@@ -4509,7 +4757,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B117" t="s">
         <v>33</v>
@@ -4517,7 +4765,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="B118" t="s">
         <v>33</v>
@@ -4525,7 +4773,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="B119" t="s">
         <v>33</v>
@@ -4533,7 +4781,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B120" t="s">
         <v>33</v>
@@ -4541,7 +4789,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B121" t="s">
         <v>33</v>
@@ -4549,7 +4797,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B122" t="s">
         <v>33</v>
@@ -4557,7 +4805,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="B123" t="s">
         <v>33</v>
@@ -4565,167 +4813,167 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="B125" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="B126" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B127" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B128" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B129" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="B130" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="B131" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="B132" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="B133" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="B134" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="B135" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B136" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B137" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B138" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="B139" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="B141" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="B143" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B144" t="s">
         <v>33</v>
@@ -4733,15 +4981,15 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="B145" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B146" t="s">
         <v>33</v>
@@ -4749,26 +4997,26 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="B147" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="B148" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="B149" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -4781,7 +5029,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B151" t="s">
         <v>33</v>
@@ -4789,7 +5037,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B152" t="s">
         <v>33</v>
@@ -4797,7 +5045,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B153" t="s">
         <v>33</v>
@@ -4805,7 +5053,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B154" t="s">
         <v>33</v>
@@ -4813,135 +5061,135 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="B155" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B156" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B157" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B158" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B159" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="B160" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B161" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B162" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B163" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B164" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="B165" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B166" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="B167" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B168" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="B169" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B170" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B171" t="s">
         <v>33</v>
@@ -4949,15 +5197,15 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B172" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B173" t="s">
         <v>33</v>
@@ -4965,7 +5213,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B174" t="s">
         <v>33</v>
@@ -4973,7 +5221,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B175" t="s">
         <v>33</v>
@@ -4981,47 +5229,47 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B176" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B181" t="s">
         <v>33</v>
@@ -5032,12 +5280,12 @@
         <v>94</v>
       </c>
       <c r="B182" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B183" t="s">
         <v>33</v>
@@ -5045,79 +5293,79 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B189" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B190" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B191" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B193" t="s">
         <v>33</v>
@@ -5125,15 +5373,15 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B194" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B195" t="s">
         <v>33</v>
@@ -5141,39 +5389,39 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B200" t="s">
         <v>33</v>
@@ -5181,7 +5429,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B201" t="s">
         <v>33</v>
@@ -5189,34 +5437,34 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B202" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B203" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B204" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B205" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5248,42 +5496,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5291,7 +5539,7 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5299,28 +5547,28 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -5328,39 +5576,39 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -5376,63 +5624,63 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -5443,15 +5691,15 @@
         <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5459,7 +5707,7 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5467,44 +5715,44 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -5512,47 +5760,47 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -5560,7 +5808,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
@@ -5568,7 +5816,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
@@ -5576,7 +5824,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -5584,15 +5832,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
@@ -5608,31 +5856,31 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
@@ -5640,23 +5888,23 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
@@ -5692,243 +5940,243 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/Standard_Policy_Deployments.xlsx
+++ b/Standard_Policy_Deployments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://datacomunity-my.sharepoint.com/personal/neily_datacom_co_nz/Documents/Documents/Azure/Scripts/Git Repositories/azure_policies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="13_ncr:1_{323CF053-687D-4F28-8CDD-966C1F6B7E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92D86E85-5F45-45D1-B121-F20ABDB8EC1D}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{323CF053-687D-4F28-8CDD-966C1F6B7E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9F6E96-8426-49CA-B3C7-9937902E93B9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C526893B-329A-46F6-A211-A9C74EF7D8E3}"/>
+    <workbookView minimized="1" xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{C526893B-329A-46F6-A211-A9C74EF7D8E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignments" sheetId="1" r:id="rId1"/>
@@ -1538,11 +1538,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1557,169 +1556,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1905,6 +1746,159 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1987,32 +1981,32 @@
     <sortCondition ref="A2:A30"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D4F2FFEB-7EA6-48B3-9E2B-64D7986BE0D3}" name="Policy Assignment" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{7D85438B-6151-4D4A-9CCF-96F04CAB43BF}" name="Scope" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{BD254C41-3268-4116-9BD6-F45636575D2B}" name="Type" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{77C440E3-04B9-46CC-96E8-AC081A809F21}" name="Definition" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{01AADA0D-4CCD-4BB9-9C22-EB03495840CE}" name="Description" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{A13FBF5E-0EAF-49F3-9FA8-3188D5A08EF9}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D4F2FFEB-7EA6-48B3-9E2B-64D7986BE0D3}" name="Policy Assignment" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{7D85438B-6151-4D4A-9CCF-96F04CAB43BF}" name="Scope" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{BD254C41-3268-4116-9BD6-F45636575D2B}" name="Type" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{77C440E3-04B9-46CC-96E8-AC081A809F21}" name="Definition" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{01AADA0D-4CCD-4BB9-9C22-EB03495840CE}" name="Description" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{A13FBF5E-0EAF-49F3-9FA8-3188D5A08EF9}" name="Notes" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E1679A14-963D-4056-B939-E669D64F2EEB}" name="Table4" displayName="Table4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E1679A14-963D-4056-B939-E669D64F2EEB}" name="Table4" displayName="Table4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:D8" xr:uid="{E1679A14-963D-4056-B939-E669D64F2EEB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B15932D4-8536-4035-A6B8-B133796DD050}" name="Initiative Name" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B51CC8A7-8D5E-4645-B388-DE9BB0A39B9B}" name="Type" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{8279B3BD-E5A6-436F-9DD2-8F1439AC547A}" name="Category " dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{8F25CB55-CF6D-49F8-B6DB-AC54D5B7135F}" name="Policies" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{B15932D4-8536-4035-A6B8-B133796DD050}" name="Initiative Name" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B51CC8A7-8D5E-4645-B388-DE9BB0A39B9B}" name="Type" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{8279B3BD-E5A6-436F-9DD2-8F1439AC547A}" name="Category " dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8F25CB55-CF6D-49F8-B6DB-AC54D5B7135F}" name="Policies" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C89E84E7-BFCA-43EA-BC7F-44723D916F23}" name="Table3" displayName="Table3" ref="A1:E42" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C89E84E7-BFCA-43EA-BC7F-44723D916F23}" name="Table3" displayName="Table3" ref="A1:E42" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:E42" xr:uid="{C89E84E7-BFCA-43EA-BC7F-44723D916F23}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{32F7135D-91EE-46F8-AFDD-00FA5518DA7A}" name="Policy Definition Name"/>
@@ -2026,7 +2020,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C03CF4F-99FB-4D29-9040-E78092FFAA71}" name="Table1" displayName="Table1" ref="A1:B205" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C03CF4F-99FB-4D29-9040-E78092FFAA71}" name="Table1" displayName="Table1" ref="A1:B205" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:B205" xr:uid="{0C03CF4F-99FB-4D29-9040-E78092FFAA71}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{37D895BE-C9AC-4921-9FDF-E087C983CD6D}" name="Policy"/>
@@ -2037,7 +2031,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45EA6D82-AE5A-4584-843D-67E5D6851C4C}" name="Table2" displayName="Table2" ref="A1:B52" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45EA6D82-AE5A-4584-843D-67E5D6851C4C}" name="Table2" displayName="Table2" ref="A1:B52" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:B52" xr:uid="{45EA6D82-AE5A-4584-843D-67E5D6851C4C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C2995EDE-FCDA-4C07-B711-D2199BCD2572}" name="Policy"/>
@@ -2051,7 +2045,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{22CA609E-8F13-4067-BEA7-AD14489261DF}" name="notes" displayName="notes" ref="A1:A49" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:A49" xr:uid="{22CA609E-8F13-4067-BEA7-AD14489261DF}"/>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{260F814F-1EF3-466B-A7D6-0DE6A78869BD}" uniqueName="2" name="Policies" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{260F814F-1EF3-466B-A7D6-0DE6A78869BD}" uniqueName="2" name="Policies" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2362,7 +2356,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.140625" customWidth="1"/>
+    <col min="1" max="1" width="78.140625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="112" customWidth="1"/>
@@ -2374,384 +2368,384 @@
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="2" t="s">
         <v>425</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2759,165 +2753,165 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="2" t="s">
         <v>435</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="2" t="s">
         <v>434</v>
       </c>
       <c r="F30" s="2"/>
@@ -2948,21 +2942,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2971,12 +2965,12 @@
       <c r="C2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2985,12 +2979,12 @@
       <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2999,12 +2993,12 @@
       <c r="C4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3013,12 +3007,12 @@
       <c r="C5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3027,12 +3021,12 @@
       <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3041,21 +3035,21 @@
       <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3088,19 +3082,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3828,10 +3822,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5495,10 +5489,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5940,242 +5934,242 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" t="s">
         <v>401</v>
       </c>
     </row>

--- a/Standard_Policy_Deployments.xlsx
+++ b/Standard_Policy_Deployments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://datacomunity-my.sharepoint.com/personal/neily_datacom_co_nz/Documents/Documents/Azure/Scripts/Git Repositories/azure_policies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{323CF053-687D-4F28-8CDD-966C1F6B7E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9F6E96-8426-49CA-B3C7-9937902E93B9}"/>
+  <xr:revisionPtr revIDLastSave="625" documentId="13_ncr:1_{323CF053-687D-4F28-8CDD-966C1F6B7E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A046212C-54E8-4443-B462-769DB86B0715}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{C526893B-329A-46F6-A211-A9C74EF7D8E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C526893B-329A-46F6-A211-A9C74EF7D8E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignments" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="418">
   <si>
     <t>Description</t>
   </si>
@@ -88,21 +88,6 @@
     <t>Configures flow logs on NSG’s</t>
   </si>
   <si>
-    <t>Applies the resource group Application tag to all resources in the resource group</t>
-  </si>
-  <si>
-    <t>Applies the resource group Environment tag to all resources in the resource group</t>
-  </si>
-  <si>
-    <t>Applies the resource group Owner tag to all resources in the resource group</t>
-  </si>
-  <si>
-    <t>Applies Log Analytics / Azure monitor to all VMs</t>
-  </si>
-  <si>
-    <t>Audits resources that do not have firewall set</t>
-  </si>
-  <si>
     <t>Policy Assignment</t>
   </si>
   <si>
@@ -112,33 +97,12 @@
     <t>Azure Backup should be enabled for Virtual Machines</t>
   </si>
   <si>
-    <t>Enable Azure Monitor for VMs</t>
-  </si>
-  <si>
     <t>Audit VMs that do not use managed disks</t>
   </si>
   <si>
-    <t>Network interfaces should not have public Ips</t>
-  </si>
-  <si>
-    <t>Allowed locations for resource groups</t>
-  </si>
-  <si>
-    <t>Allowed locations</t>
-  </si>
-  <si>
-    <t>Allowed virtual machine size SKUs</t>
-  </si>
-  <si>
     <t>Deploy flow logs to network security group</t>
   </si>
   <si>
-    <t>Inherit a tag from the resource group</t>
-  </si>
-  <si>
-    <t>Deploy prerequisites to enable Guest Configuration policies on virtual machines</t>
-  </si>
-  <si>
     <t>Apply diagnostic settings for applicable resources - Log Analytics</t>
   </si>
   <si>
@@ -148,9 +112,6 @@
     <t>Deploy Private Endpoints To Resources</t>
   </si>
   <si>
-    <t>BuiltIn</t>
-  </si>
-  <si>
     <t>Audit</t>
   </si>
   <si>
@@ -169,9 +130,6 @@
     <t>Sets allowed locations for resources</t>
   </si>
   <si>
-    <t>Sets allowed locations for resource groups</t>
-  </si>
-  <si>
     <t>Sets allowed VM SKU’s</t>
   </si>
   <si>
@@ -199,24 +157,12 @@
     <t>Denies large managed disks</t>
   </si>
   <si>
-    <t>Network interfaces should not have public IPs</t>
-  </si>
-  <si>
     <t>Denies public IPS on VM NICs</t>
   </si>
   <si>
-    <t>Inherit a tag from the subscription</t>
-  </si>
-  <si>
     <t>Tag</t>
   </si>
   <si>
-    <t>Inherits a tag from the subscription</t>
-  </si>
-  <si>
-    <t>Inherits a tag from the resource group</t>
-  </si>
-  <si>
     <t>Deploy network watcher when virtual networks are created</t>
   </si>
   <si>
@@ -229,87 +175,33 @@
     <t>SQL</t>
   </si>
   <si>
-    <t>Enables SQL TDE</t>
-  </si>
-  <si>
-    <t>Configure Azure Defender to be enabled on SQL servers</t>
-  </si>
-  <si>
     <t>Enables SQL Azure Defender</t>
   </si>
   <si>
     <t>Add system-assigned managed identity to enable Guest Configuration assignments on virtual machines with no identities</t>
   </si>
   <si>
-    <t>Guest Configuration</t>
-  </si>
-  <si>
-    <t>Adds a system-assigned managed identity to VMs</t>
-  </si>
-  <si>
     <t>Add system-assigned managed identity to enable Guest Configuration assignments on VMs with a user-assigned identity</t>
   </si>
   <si>
     <t>Deploy the Windows Guest Configuration extension to enable Guest Configuration assignments on Windows VMs</t>
   </si>
   <si>
-    <t>Installs the Guest configuration extension</t>
-  </si>
-  <si>
     <t>Deploy the Linux Guest Configuration extension to enable Guest Configuration assignments on Linux VMs</t>
   </si>
   <si>
-    <t>Configure Log Analytics agent on Azure Arc enabled Windows servers</t>
-  </si>
-  <si>
     <t>Monitoring</t>
   </si>
   <si>
-    <t>Installs the Log Analytics Agent</t>
-  </si>
-  <si>
-    <t>Configure Log Analytics agent to be enabled on Windows virtual machines</t>
-  </si>
-  <si>
-    <t>Configure Log Analytics agent on Azure Arc enabled Linux servers</t>
-  </si>
-  <si>
-    <t>Deploy Log Analytics agent for Linux VMs</t>
-  </si>
-  <si>
-    <t>Configure Dependency agent on Azure Arc enabled Windows servers</t>
-  </si>
-  <si>
-    <t>Installs the Dependency Agent</t>
-  </si>
-  <si>
-    <t>Deploy Dependency agent for Linux virtual machines</t>
-  </si>
-  <si>
-    <t>[Preview]: Log Analytics Agent should be enabled for listed virtual machine images</t>
-  </si>
-  <si>
     <t>Dependency agent should be enabled for listed virtual machine images</t>
   </si>
   <si>
-    <t>Configure Service Bus namespaces to use private DNS zones</t>
-  </si>
-  <si>
     <t>DNS</t>
   </si>
   <si>
     <t>Configures Private DNS integration</t>
   </si>
   <si>
-    <t>Configure Key Vaults to use private DNS zones</t>
-  </si>
-  <si>
-    <t>Configure blob storage to use private DNS zones</t>
-  </si>
-  <si>
-    <t>Configure Azure SQL Server to use private DNS zones</t>
-  </si>
-  <si>
     <t>Policy Definition Name</t>
   </si>
   <si>
@@ -328,80 +220,19 @@
     <t>Deploy Private Endpoint to Azure blob storage - Region Option</t>
   </si>
   <si>
-    <t>Configures private endpoints</t>
-  </si>
-  <si>
     <t>Deploy Private EndPoints To SQL Servers - Region option</t>
   </si>
   <si>
     <t>Storage accounts should restrict network access</t>
   </si>
   <si>
-    <t>Audits unrestricted access to storage accounts</t>
-  </si>
-  <si>
     <t>Public network access on Azure SQL Database should be disabled</t>
   </si>
   <si>
-    <t>Builtin</t>
-  </si>
-  <si>
     <t>Audits SQL servers with public access enabled</t>
   </si>
   <si>
-    <t>Configure private endpoint connections on Azure Automation accounts</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>Deploy Private Endpoint to Azure file storage - Region Option</t>
-  </si>
-  <si>
     <t>Audit Resource Groups For Tag Compliance</t>
-  </si>
-  <si>
-    <t>AUDIT - Unrestricted Access To Resources</t>
-  </si>
-  <si>
-    <t>Configure file storage to use private DNS zones</t>
-  </si>
-  <si>
-    <t>Configure Azure Automation DSCAndHybridWorker to use private DNS zones</t>
-  </si>
-  <si>
-    <t>Configure Azure Automation Webhook to use private DNS zones</t>
-  </si>
-  <si>
-    <t>Add system-assigned managed identity to enable Guest Configuration assignments on virtual machines with no identities
-Add system-assigned managed identity to enable Guest Configuration assignments on VMs with a user-assigned identity
-Deploy the Windows Guest Configuration extension to enable Guest Configuration assignments on Windows VMs
-Deploy the Linux Guest Configuration extension to enable Guest Configuration assignments on Linux VMs</t>
-  </si>
-  <si>
-    <t>Configure Log Analytics agent on Azure Arc enabled Windows servers
-Configure Log Analytics agent to be enabled on Windows virtual machines
-Configure Log Analytics agent on Azure Arc enabled Linux servers
-Deploy Log Analytics agent for Linux VMs
-Configure Dependency agent on Azure Arc enabled Windows servers
-Deploy Dependency agent for Linux virtual machines
-[Preview]: Log Analytics Agent should be enabled for listed virtual machine images
-Dependency agent should be enabled for listed virtual machine images</t>
-  </si>
-  <si>
-    <t>Configure Service Bus namespaces to use private DNS zones
-Configure Key Vaults to use private DNS zones
-Configure blob storage to use private DNS zones
-Configure Azure SQL Server to use private DNS zones
-Configure file storage to use private DNS zones
-Configure Azure Automation DSCAndHybridWorker to use private DNS zones
-Configure Azure Automation Webhook to use private DNS zones</t>
-  </si>
-  <si>
-    <t>Deploy Private Endpoint to Azure blob storage - Region Option
-Deploy Private EndPoints To SQL Servers - Region option
-Configure private endpoint connections on Azure Automation accounts
-Deploy Private Endpoint to Azure file storage - Region Option</t>
   </si>
   <si>
     <t>Storage accounts should restrict network access
@@ -414,15 +245,6 @@
     <t>Policies</t>
   </si>
   <si>
-    <t>Audit - Require a tag on resource groups</t>
-  </si>
-  <si>
-    <t>Audits presence of a required tag</t>
-  </si>
-  <si>
-    <t>Applies pre Reqs to Guest Configuration</t>
-  </si>
-  <si>
     <t>Scope</t>
   </si>
   <si>
@@ -441,9 +263,6 @@
     <t>Initiative</t>
   </si>
   <si>
-    <t>Apply NSG Flow Log Settings</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -1308,54 +1127,9 @@
     <t>DENY - Resources Deployed to Unauthorised Locations</t>
   </si>
   <si>
-    <t>DEPLOY - Inherit Application tag from the resource group</t>
-  </si>
-  <si>
-    <t>DEPLOY - Inherit Environment tag from the resource group</t>
-  </si>
-  <si>
-    <t>DEPLOY - Inherit Owner tag from the resource group</t>
-  </si>
-  <si>
-    <t>DEPLOY - Prerequisites to enable Guest Configuration policies on virtual machines</t>
-  </si>
-  <si>
     <t>DEPLOY - Apply NSG Flow Log Settings</t>
   </si>
   <si>
-    <t>DEPLOY - Enable Azure Monitor for VMs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASC DataProtection </t>
-  </si>
-  <si>
-    <t>Configure Azure Defender to be enabled on SQL Servers and SQL Managed Instances</t>
-  </si>
-  <si>
-    <t>ASC provisioning Guest Configuration agent for Linux</t>
-  </si>
-  <si>
-    <t>ASC provisioning Guest Configuration agent for Windows</t>
-  </si>
-  <si>
-    <t>ASC provisioning machines with no MI for GC agent</t>
-  </si>
-  <si>
-    <t>ASC provisioning machines with user assigned MI for GC agent</t>
-  </si>
-  <si>
-    <t>Custom Defender for Cloud provisioning Azure Monitor agent</t>
-  </si>
-  <si>
-    <t>This policy assignment was automatically created by Azure Security Center for agent installation as configured in Security Center auto provisioning.</t>
-  </si>
-  <si>
-    <t>This policy assignment was automatically created by Azure Security Center</t>
-  </si>
-  <si>
-    <t>Configure machines to create the user-defined Microsoft Defender for Cloud pipeline using Azure Monitor Agent</t>
-  </si>
-  <si>
     <t>DEPLOY - Diagnostic settings for key resources</t>
   </si>
   <si>
@@ -1371,9 +1145,6 @@
     <t>DEPLOY - Set NoDelete Lock On Resource Groups</t>
   </si>
   <si>
-    <t>Set NoDelete Lock On Resource Groups</t>
-  </si>
-  <si>
     <t>Sets No Delete lock on Resource Groups</t>
   </si>
   <si>
@@ -1384,6 +1155,169 @@
   </si>
   <si>
     <t>Sets No Delete on Resource groups</t>
+  </si>
+  <si>
+    <t>DEPLOY - Firewall to Key Vaults</t>
+  </si>
+  <si>
+    <t>Enables the firewall on Key Vaults</t>
+  </si>
+  <si>
+    <t>DEPLOY - Deploy Firewall To Storage Accounts</t>
+  </si>
+  <si>
+    <t>Enables the firewall on Storage Accounts</t>
+  </si>
+  <si>
+    <t>DENY - Public network access on Azure SQL Database must be disabled</t>
+  </si>
+  <si>
+    <t>Sets Public Access to Denied on Azure SQL Servers</t>
+  </si>
+  <si>
+    <t>Deploy Firewall To Storage Accounts</t>
+  </si>
+  <si>
+    <t>Deploy Firewall To Key Vaults</t>
+  </si>
+  <si>
+    <t>Deny Public Access On SQL</t>
+  </si>
+  <si>
+    <t>Deploy Inherit Application tag from the resource group</t>
+  </si>
+  <si>
+    <t>Deploy Inherit Owner tag from the resource group</t>
+  </si>
+  <si>
+    <t>DEPLOY - Inherit Tags from the resource group</t>
+  </si>
+  <si>
+    <t>Deploys tags to resources in resource group</t>
+  </si>
+  <si>
+    <t>Deploy NSG Flow Log Settings</t>
+  </si>
+  <si>
+    <t>Deny Disallowed locations</t>
+  </si>
+  <si>
+    <t>Deny Network interfaces with public Ips</t>
+  </si>
+  <si>
+    <t>Deploy Private Endpoint to Azure Key Vaults - Region Option</t>
+  </si>
+  <si>
+    <t>Deploy queue storage to use private DNS zones</t>
+  </si>
+  <si>
+    <t>Deploy table storage to use private DNS zones</t>
+  </si>
+  <si>
+    <t>Deploy Azure Automation DSCAndHybridWorker to use private DNS zones</t>
+  </si>
+  <si>
+    <t>Deploy Azure Defender to be enabled on SQL servers</t>
+  </si>
+  <si>
+    <t>Deploy Azure SQL Server to use private DNS zones</t>
+  </si>
+  <si>
+    <t>Deploy blob storage to use private DNS zones</t>
+  </si>
+  <si>
+    <t>Deny Large Managed Disk Sizes</t>
+  </si>
+  <si>
+    <t>Deny unauthorised VM SKUs</t>
+  </si>
+  <si>
+    <t>Audit Resource Groups For Application Tag</t>
+  </si>
+  <si>
+    <t>Audit Resource Groups For Owner Tag</t>
+  </si>
+  <si>
+    <t>Deny Resource group disallowed locations</t>
+  </si>
+  <si>
+    <t>Deploy NoDelete Lock On Resource Groups</t>
+  </si>
+  <si>
+    <t>Audit Azure Backup should be enabled for Virtual Machines</t>
+  </si>
+  <si>
+    <t>Deploy diagnostic settings for applicable resources - Log Analytics</t>
+  </si>
+  <si>
+    <t>Audit Unrestricted Access To Resources</t>
+  </si>
+  <si>
+    <t>Deploy Private DNS Integration For Resources With Private Endpoints</t>
+  </si>
+  <si>
+    <t>Audit Virtual Machines Not Using Hybrid Use Benefit</t>
+  </si>
+  <si>
+    <t>DEPLOY - SQL DB transparent data encryption</t>
+  </si>
+  <si>
+    <t>Deploy Threat Detection on SQL servers</t>
+  </si>
+  <si>
+    <t>DEPLOY - Threat Detection on SQL servers</t>
+  </si>
+  <si>
+    <t>Deny Network interfaces with public IPs</t>
+  </si>
+  <si>
+    <t>Audit Resource Groups For Application Tag
+Audit Resource Groups For Owner Tag</t>
+  </si>
+  <si>
+    <t>Deploy Private Endpoint to Azure blob storage - Region Option
+Deploy Private Endpoint to Azure Key Vaults - Region Option
+Deploy Private EndPoints To ServiceBus Namespace - Region Option
+Deploy Private EndPoints To SQL Servers - Region option</t>
+  </si>
+  <si>
+    <t>Deploy Private EndPoints To ServiceBus Namespace - Region Option</t>
+  </si>
+  <si>
+    <t>Deploy Service Bus namespaces to use private DNS zones</t>
+  </si>
+  <si>
+    <t>Deploy Key Vaults to use private DNS zones</t>
+  </si>
+  <si>
+    <t>Deploy file storage to use private DNS zones</t>
+  </si>
+  <si>
+    <t>Deploy Azure Automation DSCAndHybridWorker to use private DNS zones
+Deploy Azure SQL Server to use private DNS zones
+Deploy blob storage to use private DNS zones
+Deploy file storage to use private DNS zones
+Deploy Key Vaults to use private DNS zones
+Deploy queue storage to use private DNS zones
+Deploy Service Bus namespaces to use private DNS zones
+Deploy table storage to use private DNS zones</t>
+  </si>
+  <si>
+    <t>Deploy Resource Group Tags To Resources</t>
+  </si>
+  <si>
+    <t>Deploy Inherit Environment tag from the subscription</t>
+  </si>
+  <si>
+    <t>Deploy Inherit Application tag from the resource group
+Deploy Inherit Owner tag from the resource group
+Deploy Inherit Environment tag from the subscription</t>
+  </si>
+  <si>
+    <t>Deny Snapshots without expiry Tag</t>
+  </si>
+  <si>
+    <t>DENY - Snapshots without Expiry Tag</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1556,6 +1490,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1961,6 +1900,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{D8B054DD-F712-43E5-A4EF-29FDA7A31341}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
@@ -1975,10 +1918,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3542E27E-ADFD-420D-A326-7FC9AC77CAB3}" name="Table5" displayName="Table5" ref="A1:F30" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
-  <autoFilter ref="A1:F30" xr:uid="{3542E27E-ADFD-420D-A326-7FC9AC77CAB3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
-    <sortCondition ref="A2:A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3542E27E-ADFD-420D-A326-7FC9AC77CAB3}" name="Table5" displayName="Table5" ref="A1:F25" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A1:F25" xr:uid="{3542E27E-ADFD-420D-A326-7FC9AC77CAB3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
+    <sortCondition ref="A3:A25"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D4F2FFEB-7EA6-48B3-9E2B-64D7986BE0D3}" name="Policy Assignment" dataDxfId="17"/>
@@ -1993,8 +1936,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E1679A14-963D-4056-B939-E669D64F2EEB}" name="Table4" displayName="Table4" ref="A1:D8" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:D8" xr:uid="{E1679A14-963D-4056-B939-E669D64F2EEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E1679A14-963D-4056-B939-E669D64F2EEB}" name="Table4" displayName="Table4" ref="A1:D7" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:D7" xr:uid="{E1679A14-963D-4056-B939-E669D64F2EEB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B15932D4-8536-4035-A6B8-B133796DD050}" name="Initiative Name" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{B51CC8A7-8D5E-4645-B388-DE9BB0A39B9B}" name="Type" dataDxfId="6"/>
@@ -2006,8 +1949,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C89E84E7-BFCA-43EA-BC7F-44723D916F23}" name="Table3" displayName="Table3" ref="A1:E42" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:E42" xr:uid="{C89E84E7-BFCA-43EA-BC7F-44723D916F23}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C89E84E7-BFCA-43EA-BC7F-44723D916F23}" name="Table3" displayName="Table3" ref="A1:E34" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:E34" xr:uid="{C89E84E7-BFCA-43EA-BC7F-44723D916F23}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E34">
+    <sortCondition ref="A8:A34"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{32F7135D-91EE-46F8-AFDD-00FA5518DA7A}" name="Policy Definition Name"/>
     <tableColumn id="2" xr3:uid="{FEF4C30F-42B7-4BCD-B1CD-FA63EFA1F1D7}" name="Type"/>
@@ -2348,573 +2294,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE54F38-3FE5-4E24-B0A4-52F6E1B53E52}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.140625" customWidth="1"/>
+    <col min="1" max="1" width="71.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="112" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
     <col min="5" max="5" width="132.28515625" customWidth="1"/>
     <col min="6" max="6" width="126.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>419</v>
+        <v>68</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>397</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>422</v>
+        <v>349</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>423</v>
+        <v>350</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>405</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>120</v>
+        <v>405</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="A9" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>395</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>103</v>
+        <v>357</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>103</v>
+        <v>382</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A12" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>425</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>4</v>
+        <v>381</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
+      <c r="A15" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>371</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
+      <c r="A18" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>369</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="A19" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="A20" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>353</v>
-      </c>
+      <c r="A21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="A22" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2"/>
+      <c r="A23" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="2"/>
+      <c r="A24" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F30" s="2"/>
+      <c r="A25" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2927,7 +2777,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A2C0B4-CBD8-446C-9054-741A5C1CBC2F}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -2943,119 +2793,105 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>402</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>108</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
-    <sortCondition ref="A1:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+    <sortCondition ref="A1:A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3066,15 +2902,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE243F7-8D7D-4923-ABBE-1A4B3E9EDF6E}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="109.5703125" customWidth="1"/>
+    <col min="1" max="1" width="71.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
@@ -3083,721 +2919,549 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>433</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" t="s">
-        <v>436</v>
-      </c>
-      <c r="E42" t="s">
-        <v>437</v>
-      </c>
+      <c r="E34" s="17"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
-    <sortCondition ref="A1:A40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
+    <sortCondition ref="A1:A14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3823,1642 +3487,1642 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="B81" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="B83" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="B84" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="B101" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="B102" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="B104" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="B105" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="B118" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="B122" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="B123" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="B124" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="B125" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="B126" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="B127" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="B128" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="B129" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="B131" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="B132" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="B133" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="B134" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="B135" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="B136" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="B137" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="B138" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="B139" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="B140" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="B141" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="B142" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="B143" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="B144" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="B145" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="B146" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="B147" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="B148" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="B149" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B150" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="B151" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="B152" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="B153" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="B154" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="B155" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="B156" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="B157" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="B159" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="B160" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="B161" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="B162" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="B163" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="B164" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="B165" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="B166" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="B167" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="B168" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="B169" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="B170" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="B171" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="B172" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="B173" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="B174" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="B175" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B177" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="B179" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="B180" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="B181" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B182" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="B183" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="B184" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="B185" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="B186" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B187" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="B188" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="B189" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="B190" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="B191" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="B192" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="B193" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="B194" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="B195" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="B196" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="B197" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="B198" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="B199" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="B200" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="B201" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="B202" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="B203" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="B204" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="B205" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5490,418 +5154,418 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5930,247 +5594,247 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>396</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>397</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>398</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>399</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>400</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
